--- a/F1Scores.xlsx
+++ b/F1Scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonidas\Desktop\2025 Diss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1DEDA-1415-4D62-8B46-CB4FFBE90ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF01C9A4-E7E8-430C-9D95-9B2789E0D0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23028" yWindow="12" windowWidth="23004" windowHeight="12204" xr2:uid="{227F7DE3-E828-4A61-A13E-D3919CBE1D86}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{227F7DE3-E828-4A61-A13E-D3919CBE1D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test/Model:</t>
   </si>
   <si>
-    <t>0.25 of dataset:</t>
-  </si>
-  <si>
     <t>0.5 of dataset:</t>
   </si>
   <si>
-    <t>0.4 of dataset + 0.3 of each article:</t>
-  </si>
-  <si>
-    <t>0.4 of dataset + 0.3 of each article + removing keywords:</t>
-  </si>
-  <si>
-    <t>0.35 of dataset + 0.2 of each article + removing keywords:</t>
-  </si>
-  <si>
-    <t>0.1 of each article + removing keywords:</t>
-  </si>
-  <si>
     <t>BERT</t>
   </si>
   <si>
@@ -78,6 +63,39 @@
   </si>
   <si>
     <t>Phi-3.5-mini-instruct</t>
+  </si>
+  <si>
+    <t>0.2 of each article + removing keywords:</t>
+  </si>
+  <si>
+    <t>New Test Dataset</t>
+  </si>
+  <si>
+    <t>Conf matrix for new test dataset</t>
+  </si>
+  <si>
+    <t>[[ 66 423   1  10]
+ [  4 372 104   1]
+ [  1 555  12  40]
+ [  0 114   3  90]]</t>
+  </si>
+  <si>
+    <t>[[ 87 389  24   0]
+ [  0 423  56   2]
+ [  0 536   6  66]
+ [  0 114   0  93]]</t>
+  </si>
+  <si>
+    <t>[[ 70  15 260 155]
+ [  0 442  39   0]
+ [  1 527  10  70]
+ [  0 167   3  37]]</t>
+  </si>
+  <si>
+    <t>[[155  18 106 221]
+ [  0 464  17   0]
+ [  0 484  17 107]
+ [  0 119   0  88]]</t>
   </si>
 </sst>
 </file>
@@ -113,8 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3634DAF1-279F-4369-A078-B1AEB3E6AFA1}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,138 +490,135 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.94299999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="C2">
         <v>0.96299999999999997</v>
       </c>
       <c r="D2">
-        <v>0.99099999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E2">
-        <v>0.99399999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F2">
-        <v>0.97299999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="G2">
-        <v>0.98299999999999998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.92300000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="C3">
-        <v>0.95899999999999996</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D3">
-        <v>0.98299999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="E3">
-        <v>0.98899999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F3">
         <v>0.93</v>
       </c>
       <c r="G3">
-        <v>0.96799999999999997</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88200000000000001</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C4">
         <v>0.92900000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.93</v>
+      </c>
+      <c r="F4">
+        <v>0.89</v>
+      </c>
+      <c r="G4">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.90300000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C5">
-        <v>0.95</v>
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.36</v>
+      </c>
+      <c r="E5">
+        <v>0.41</v>
+      </c>
+      <c r="F5">
+        <v>0.38</v>
+      </c>
+      <c r="G5">
+        <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.90900000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.878</v>
-      </c>
-      <c r="C8">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D8">
-        <v>0.91</v>
-      </c>
-      <c r="E8">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="F8">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="G8">
-        <v>0.88200000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>